--- a/biology/Zoologie/Cuivré_fuligineux/Cuivré_fuligineux.xlsx
+++ b/biology/Zoologie/Cuivré_fuligineux/Cuivré_fuligineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_fuligineux</t>
+          <t>Cuivré_fuligineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena tityrus
 Le Cuivré fuligineux ou Argus myope (Lycaena tityrus) est une espèce paléarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Lycaeninae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_fuligineux</t>
+          <t>Cuivré_fuligineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,16 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Lycaena tityrus a été décrite par Nicolaus Poda von Neuhaus en 1761.
-Synonymes[1],[2] : 
+Synonymes, : 
 Papilio tityrus Poda, 1761 — protonyme
 Heodes tityrus (Poda, 1761)
 Papilio circe (Denis et Schiffermüller, 1775)
-Papilio dorilis (Hufnagel, 1766)
-Sous-espèces
-Lycaena tityrus tityrus (Poda, 1761)
-Lycaena tityrus bleusei (Oberthür, 1884).
-Lycaena tityrus subalpinus ou Lycaena subalpinus (Speyer, 1851)[3].</t>
+Papilio dorilis (Hufnagel, 1766)</t>
         </is>
       </c>
     </row>
@@ -533,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_fuligineux</t>
+          <t>Cuivré_fuligineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>en français : le Cuivré fuligineux, l'Argus myope[1]
-en anglais : Sooty Copper
-en allemand : Brauner Feuerfalter
-en néerlandais : Bruine vuurvlinder[2]</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lycaena tityrus tityrus (Poda, 1761)
+Lycaena tityrus bleusei (Oberthür, 1884).
+Lycaena tityrus subalpinus ou Lycaena subalpinus (Speyer, 1851).</t>
         </is>
       </c>
     </row>
@@ -566,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_fuligineux</t>
+          <t>Cuivré_fuligineux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +596,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>en français : le Cuivré fuligineux, l'Argus myope
+en anglais : Sooty Copper
+en allemand : Brauner Feuerfalter
+en néerlandais : Bruine vuurvlinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cuivré fuligineux est un petit papillon présentant des variations entre les sexes, entre les générations et entre les sous-espèces. Le dessus peut être marron orné de quelques points noirs aux antérieures (femelle de L. t. subalpinus) orné en plus d'une ligne submarginale de points orange aux postérieures (mâle de L. t. tityrus), ou des antérieures orange plus ou moins bordées de marron et ornées des mêmes points (chez L. t. bleusei et la femelle de L. t. tityrus).
 Le revers, d'un ton entre le gris clair et le beige, orné de points noirs entouré de blanc, présente à l'aile postérieure une ligne submarginale de points jaunes chez la femelle de L. t. subalpinus, orange chez L. t. tityrus dont l'aile antérieure de la femelle est orange au centre.
@@ -592,45 +644,6 @@
 			Lycaena tityrus ♂  △ MHNT
 			L. t. tityrus, femelle sombre.
 			L. t. tityrus, revers d'un mâle.
-Chenille et chrysalide
-Les œufs sont pondus sur les plantes hôtes Rumex acetosella et Rumex scutatus pour L. t. subalpinus[3].
-Espèces proches ou ressemblantes
-Le Cuivré fuligineux est parfois difficile à différencier du Cuivré mauvin  (Lycaena alciphron) et du Cuivré commun (Lycaena phlaeas) dans leurs aires de répartition communes.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_fuligineux</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations, d'avril à juin puis de juillet à septembre, mais n'aurait qu'une génération au-dessus de 1 500 mètres et au contraire plusieurs d'avril à octobre dans les régions chaudes à faible altitude[3].
-Il hiverne à l'état de jeune larve.
-Plantes hôtes
-Les plantes hôtes sont des Rumex ou (oseilles sauvages) en particulier Rumex acetosella pour L. t. tityrus et Rumex scutatus pour L. t. subalpinus[3].
 </t>
         </is>
       </c>
@@ -641,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_fuligineux</t>
+          <t>Cuivré_fuligineux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,19 +669,240 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus sur les plantes hôtes Rumex acetosella et Rumex scutatus pour L. t. subalpinus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces proches ou ressemblantes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré fuligineux est parfois difficile à différencier du Cuivré mauvin  (Lycaena alciphron) et du Cuivré commun (Lycaena phlaeas) dans leurs aires de répartition communes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations, d'avril à juin puis de juillet à septembre, mais n'aurait qu'une génération au-dessus de 1 500 mètres et au contraire plusieurs d'avril à octobre dans les régions chaudes à faible altitude.
+Il hiverne à l'état de jeune larve.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Rumex ou (oseilles sauvages) en particulier Rumex acetosella pour L. t. tityrus et Rumex scutatus pour L. t. subalpinus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition est eurasienne, comporte toute l'Europe continentale du nord de l'Espagne à la Pologne et de la Turquie à la Sibérie[2].
-En France il est présent dans tous les départements mais pourrait, étant donné l'absence de relevé depuis plusieurs années, avoir disparu des départements de la façade de la Manche, de Corse et de nombre d'autres départements[4],[5].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition est eurasienne, comporte toute l'Europe continentale du nord de l'Espagne à la Pologne et de la Turquie à la Sibérie.
+En France il est présent dans tous les départements mais pourrait, étant donné l'absence de relevé depuis plusieurs années, avoir disparu des départements de la façade de la Manche, de Corse et de nombre d'autres départements,.
 L. t. subalpinus est présent dans les Pyrénées et les Alpes en France, Italie, Suisse, Allemagne et Autriche de 1 200 à 2 500 mètres.
 L. t. bleusei est présent dans une zone isolée en Espagne autour de Madrid.
-Biotope
-Il aime les prairies fleuries, les lieux broussailleux herbus et fleuris.
-Protection
-Pas de statut de protection particulier[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il aime les prairies fleuries, les lieux broussailleux herbus et fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cuivré_fuligineux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_fuligineux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
